--- a/Web Scrapper/Excel Files/data.xlsx
+++ b/Web Scrapper/Excel Files/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vasundhara Infotech</t>
+          <t>Huptech Consultancy Services</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0-1 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Surat</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,285 +493,285 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vasundhara Infotech</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0-1 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Surat</t>
+          <t>Mangaluru/Mangalore, Remote</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IDZ Digital Private Limited</t>
+          <t>Catalyst</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0-2 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mumbai, Mumbai Suburban</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,50,000 - 3,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Axis Entertainment Limited</t>
+          <t>Accenture</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0-4 Yrs</t>
+          <t>4-6 Yrs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IDZ Digital Private Limited</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0-2 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mumbai, Mumbai Suburban</t>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,50,000 - 3,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Day Dreamz Studio</t>
+          <t>Cyient</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities: we are looking for a passionate Unity game developer who is...</t>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Unity', 'Game Development']</t>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>HyrEzy Talent Solutions</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a good multi-tasker who can work within tight deadlinesYou have at least 3 year...</t>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['IT Skills', 'HTML', 'CSS', 'Javascript', 'Graphics', 'Visual Effects', 'Unity3D', 'Animation']</t>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
+          <t>HyrEzy Talent Solutions</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10,00,000 - 15,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2coms consulting</t>
+          <t>HyrEzy Talent Solutions</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This is a remote position. Proven working experience in full lifecycle game development...</t>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru, Bangalore</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90,000 - 3,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['Java', '3D animation', '3D Rendering', 'APIs', 'artificial intelligence', 'C', 'physics', 'IT Skills']</t>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Executive Selection India</t>
+          <t>Verisk Analytics India Private Limited</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should be able to work in a growing company environment that is very dynamic and challe...</t>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,29 +781,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Unity3D', 'Unity Developer', 'Game Testing', 'Shader Programming', 'Mobile Game Design', 'debugging', 'GUI', 'API']</t>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Keywords Studios</t>
+          <t>Informatica</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Experience with multi-threaded, asynchronous and event-driven software development More...</t>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0-4 Yrs</t>
+          <t>4-7 Yrs</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,29 +813,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Agile Methodology', 'Software Development', 'Unreal Engine', 'Design Patterns', 'C + +', 'Html5', 'Data Structures', 'Javascript']</t>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Splashlearn</t>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Very good with algorithms and problem solving Preferably BTech / BE or equivalent degre...</t>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Delhi / NCR</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,29 +845,29 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Unity', 'Game Development', 'Cocos2D']</t>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OAO INDIA</t>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Note All higher level designated candidate should be capable of taking responsibilities...</t>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0-1 Yrs</t>
+          <t>6-7 Yrs</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -877,93 +877,93 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['3D', 'Backend', 'PDF', 'Networking', 'Social media', 'Maya', 'Animation', 'Creative Director']</t>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>K &amp; R Enterprises</t>
+          <t>Onward Technologies Limited</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors degree in Computer Science, Engineering, or a related field 4 Years experienc...</t>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>6-9 Yrs</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['C#', 'Java', 'Unity3D', 'C++', 'Unity Developer', 'Unity', 'Programming', 'Objective C']</t>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ManpowerGroup Services India Private Limited </t>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have worked on the first person or third person multiplayer gamesShould be aware...</t>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7,00,000 - 15,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Algorithm Plug in integration s', 'Unity3D', 'Programming', 'IOS', 'Game Unity Developer', 'Casino Games', 'Android', 'UI Canvas']</t>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Resources Valley</t>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Excellent knowledge of Unity, including experience with scripting, tex...</t>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Jaipur</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -973,29 +973,29 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Artificial Intelligence', 'Unity3D', 'C++', 'OOPS', '3D Rendering', 'Mobile Game Design']</t>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Resources Valley</t>
+          <t>Catalyst</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resource should have exp in Game Development with any of above skills : - Strong knowle...</t>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jaipur</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,19 +1005,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Game Development', 'patterns', 'ROR', 'analysis', 'OOP', 'Java', '2D 2 C#', 'Unreal']</t>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sportstech Brands Holding GmbH</t>
+          <t>Huptech Consultancy Services</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Completed studies in the field of game design / gaming / game development or a comparab...</t>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Delhi / NCR</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,61 +1037,61 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Java', '3D Game Development', 'gaming', 'Unity 3D', 'GIMP', 'ShaderLab', 'OpenGL', 'JSON']</t>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Vasundhara Infotech</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0-1 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Surat</t>
+          <t>Mangaluru/Mangalore, Remote</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Vasundhara Infotech</t>
+          <t>Catalyst</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0-1 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Surat</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,7 +1101,7559 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Mangaluru/Mangalore, Remote</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>10,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>4-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Cyient</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Verisk Analytics India Private Limited</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Informatica</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>4-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>['Fullstack Developer', 'Django', 'React']</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>6-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Onward Technologies Limited</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>6-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>10,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Future Focus Infotech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Huptech Consultancy Services</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
         </is>
       </c>
     </row>

--- a/Web Scrapper/Excel Files/data.xlsx
+++ b/Web Scrapper/Excel Files/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,61 +493,61 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,61 +557,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,29 +621,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,29 +653,29 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,29 +685,29 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -717,29 +717,29 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,61 +749,61 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,29 +813,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,29 +845,29 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -877,24 +877,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -904,34 +904,34 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -941,61 +941,61 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,29 +1005,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,61 +1037,61 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,29 +1101,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1133,61 +1133,61 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1197,29 +1197,29 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1229,29 +1229,29 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1261,29 +1261,29 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1293,29 +1293,29 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1325,51 +1325,51 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1389,29 +1389,29 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1421,61 +1421,61 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1485,29 +1485,29 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1517,61 +1517,61 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1581,61 +1581,61 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1645,24 +1645,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1677,29 +1677,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1709,61 +1709,61 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1773,29 +1773,29 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1805,29 +1805,29 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1837,29 +1837,29 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1869,29 +1869,29 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1901,61 +1901,61 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1965,61 +1965,61 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2029,24 +2029,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2061,29 +2061,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2093,93 +2093,93 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2189,29 +2189,29 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2221,29 +2221,29 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2253,29 +2253,29 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2285,61 +2285,61 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2349,29 +2349,29 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2381,29 +2381,29 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2413,24 +2413,24 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2445,29 +2445,29 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2477,93 +2477,93 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2573,29 +2573,29 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2605,29 +2605,29 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2637,29 +2637,29 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2669,61 +2669,61 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2733,29 +2733,29 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2765,29 +2765,29 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2797,24 +2797,24 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2829,29 +2829,29 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2861,61 +2861,61 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2925,29 +2925,29 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2957,29 +2957,29 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2989,29 +2989,29 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3021,29 +3021,29 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3053,61 +3053,61 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3117,29 +3117,29 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3149,29 +3149,29 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3181,29 +3181,29 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3213,51 +3213,51 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3267,39 +3267,39 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3309,29 +3309,29 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3341,29 +3341,29 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3373,29 +3373,29 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3405,29 +3405,29 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3437,61 +3437,61 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3501,29 +3501,29 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3533,19 +3533,19 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3565,24 +3565,24 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3597,93 +3597,93 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3693,29 +3693,29 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3725,29 +3725,29 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3757,61 +3757,61 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3821,61 +3821,61 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3885,29 +3885,29 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3917,29 +3917,29 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3949,29 +3949,29 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3981,29 +3981,29 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4013,61 +4013,61 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4077,29 +4077,29 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4109,29 +4109,29 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4141,61 +4141,61 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4205,61 +4205,61 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4269,29 +4269,29 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4301,56 +4301,56 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4365,29 +4365,29 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4397,19 +4397,19 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4419,39 +4419,39 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4461,29 +4461,29 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4493,29 +4493,29 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4525,29 +4525,29 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4557,29 +4557,29 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4589,61 +4589,61 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4653,29 +4653,29 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4685,61 +4685,61 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4749,29 +4749,29 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4781,19 +4781,19 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4803,29 +4803,29 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4845,61 +4845,61 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4909,29 +4909,29 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4941,29 +4941,29 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4973,61 +4973,61 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5037,29 +5037,29 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5069,29 +5069,29 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5101,29 +5101,29 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5133,29 +5133,29 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5165,61 +5165,61 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5229,61 +5229,61 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5293,29 +5293,29 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5325,29 +5325,29 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5357,93 +5357,93 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5453,29 +5453,29 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5485,29 +5485,29 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5517,29 +5517,29 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5549,61 +5549,61 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5613,29 +5613,29 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5645,29 +5645,29 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5677,29 +5677,29 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5709,29 +5709,29 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5741,93 +5741,93 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5837,29 +5837,29 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5869,24 +5869,24 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5901,29 +5901,29 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5933,61 +5933,61 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5997,29 +5997,29 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6029,29 +6029,29 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6061,29 +6061,29 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6093,29 +6093,29 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6125,61 +6125,61 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6189,29 +6189,29 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6221,29 +6221,29 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6253,24 +6253,24 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6285,29 +6285,29 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6317,61 +6317,61 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6381,29 +6381,29 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6413,29 +6413,29 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6445,29 +6445,29 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6477,93 +6477,93 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6573,29 +6573,29 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6605,29 +6605,29 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6637,29 +6637,29 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6669,29 +6669,29 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,61 +6701,61 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6765,29 +6765,29 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6797,29 +6797,29 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -6829,29 +6829,29 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6861,93 +6861,93 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6957,29 +6957,29 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -6989,19 +6989,19 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7021,61 +7021,61 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7085,61 +7085,61 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7149,29 +7149,29 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7181,29 +7181,29 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7213,29 +7213,29 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7245,29 +7245,29 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7277,61 +7277,61 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7341,29 +7341,29 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7373,29 +7373,29 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7405,24 +7405,24 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7432,34 +7432,34 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -7469,61 +7469,61 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7533,29 +7533,29 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7565,61 +7565,61 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7629,29 +7629,29 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>4-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7661,61 +7661,61 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Cyient</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7725,29 +7725,29 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7757,29 +7757,29 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Addisinfotech</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
+          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Ahmedabad</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7789,29 +7789,29 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
+          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>HyrEzy Talent Solutions</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
+          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7821,29 +7821,29 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
+          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Verisk Analytics India Private Limited</t>
+          <t>Tech Mahindra</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
+          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2-4 Yrs</t>
+          <t>5-8 Yrs</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Pan India</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -7853,51 +7853,51 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
+          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
+          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>4-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Remote</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>9,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
+          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
+          <t>eNFLUENCE IT Services</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
+          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,29 +7917,29 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
+          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
+          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>6-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7949,61 +7949,61 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
+          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Onward Technologies Limited</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
+          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>6-9 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
+          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
+          <t>Beyond Root Technology Services</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
+          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-6 Yrs</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
+          <t>Mohali</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8013,29 +8013,29 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
+          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8045,61 +8045,61 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
+          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Catalyst</t>
+          <t>Steria India Ltd</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
+          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Noida</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,75,000 - 9,50,000 PA.</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
+          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Huptech Consultancy Services</t>
+          <t>SPI technologies india private limited</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
+          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8109,551 +8109,39 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Lexicon Infotech Limited</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Work within a company with a solid track record of successJoin a well known brand withi...</t>
+          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>6-10 Yrs</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Mangaluru/Mangalore, Remote</t>
+          <t>Hyderabad/Secunderabad, Chennai</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>10,00,000 - 18,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'AWS', 'Azure', 'Rabbitmq', 'Celery', 'Docker']</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Catalyst</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>3-8 Yrs</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Bangalore/Bengaluru</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Structures']</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Accenture</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Technical Experience : a: 3-5 years of experience as a Python Developer b: Expert knowl...</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>4-6 Yrs</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Bangalore/Bengaluru</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>['Python Programming', 'Communication', 'Presentation', 'Mako', 'Django', 'Jinja', 'Python', 'Flask']</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Wipro</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Build the infrastructure required for optimal extraction, transformation, and loading o...</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>3-8 Yrs</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Gurgaon/Gurugram, Bangalore/Bengaluru</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>['Snowflake', 'AWS', 'EC2', 'RDS', 'SQL', 'IT Skills', 'Python', 'Cloud']</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Cyient</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Have experience in developing automation frameworksExperience in developing automation ...</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>3-6 Yrs</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Bangalore/Bengaluru</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>['communication', 'troubleshooting', 'SVN', 'Git', 'automation frameworks', 'Bugzilla', 'Python', 'C programming']</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>HyrEzy Talent Solutions</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>3-6 Yrs</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>HyrEzy Talent Solutions</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fields Exp...</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>3-6 Yrs</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>['IT Skills', 'Java', 'Python', 'Javascript', 'AWS', 'S3', 'REST services', 'SQS']</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>HyrEzy Talent Solutions</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Graduate / Post-Graduate in Computer Science / Mathematics/Physics or allied fieldsExp ...</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>3-6 Yrs</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>['SNS', 'ETL', 'EC2', 'AWS', 'JavaScript', 'Apache', 'REST services', 'Django']</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Verisk Analytics India Private Limited</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Minimum of bachelors degree 4 years development experienceAWS Experience is added advan...</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>2-4 Yrs</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Hyderabad/Secunderabad</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>['written communication', 'AJAX', 'JavaScript', 'XML', 'SQL', 'Python', 'AWS', 'IT Skills']</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Informatica</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> In this role, you must be able to work and adapt in a fluid, fast-paced environmentyou ...</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>4-7 Yrs</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Bangalore/Bengaluru</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>['Statistical programming', 'Networking', 'Data management', 'Access management', 'devops', 'Informatica', 'SDK', 'Vulnerability management']</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANVETA CONSULTING PRIVATE LIMITED </t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bachelors Degree in Computer Science or similar fieldAngular is preferred Docker / Cont...</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>5-10 Yrs</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Bangalore/Bengaluru</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>['Fullstack Developer', 'Django', 'React']</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Create and maintain a operational run book for the teamMonitor the infra capacity and m...</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>6-7 Yrs</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Bangalore/Bengaluru</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>['IT Skills', 'Python', 'Cloud', 'DevOps', 'Jenkins', 'AWS', 'Azure', 'Application Management']</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Onward Technologies Limited</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Required key skills are mentioned below, Python &amp; Flask FrameworkWeb application develo...</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>6-9 Yrs</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Bangalore/Bengaluru</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>10,00,000 - 16,00,000 PA.</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>['GitHub', 'SQL Server', 'CSS', 'Angular', 'Flask Framework', 'Agile methodology', 'PostgreSQL', 'Microservices']</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Future Focus Infotech Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> JOB DESCRIPTION :- Python DeveloperDjango PythonHTMLCSS ExcelHtml5</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>3-6 Yrs</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Kolkata, Hyderabad/Secunderabad, Pune, Ahmedabad, Chennai, Bangalore/Bengaluru, Delhi / NCR, Mumbai (All Areas)</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>['CSS', 'HTML', 'Excel', 'Django', 'Html5', 'Python', 'IT Skills', 'Java']</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Societe Generale Global Solution Centre Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> We are looking for a React.JS developer with working experience on Python Development t...</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>4-9 Yrs</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Bangalore/Bengaluru</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>['Front End', 'Html5', 'JavaScript', 'PHP', 'HTML', 'React.js', 'Angular', 'Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Catalyst</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Build and maintain real-time / batch data pipelines that can consolidate and clean up u...</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>3-8 Yrs</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Bangalore/Bengaluru</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>['IT Skills', 'Java', 'Python', 'Data Science', 'Machine Learning', 'Big Data', 'Hive', 'Data Pipeline']</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Huptech Consultancy Services</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Strong experience in Azure Cloud Platform and Components Familiarity and strong experie...</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>5-10 Yrs</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>['RPC', 'Java scripts', 'JQuery', 'REST', 'Machine learning', 'Agile methodologies', 'R', 'NLP']</t>
+          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
         </is>
       </c>
     </row>

--- a/Web Scrapper/Excel Files/data.xlsx
+++ b/Web Scrapper/Excel Files/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,22 +468,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,29 +493,29 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,29 +525,29 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,61 +557,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,29 +621,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,29 +653,29 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,61 +685,61 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,51 +749,51 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,39 +803,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,61 +845,61 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -909,93 +909,93 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,29 +1005,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,19 +1037,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,29 +1069,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,29 +1101,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1133,61 +1133,61 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1197,61 +1197,61 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1261,157 +1261,157 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1421,61 +1421,61 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1485,29 +1485,29 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1517,61 +1517,61 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1581,29 +1581,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1613,29 +1613,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1645,29 +1645,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1677,29 +1677,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1709,19 +1709,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1731,39 +1731,39 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1773,93 +1773,93 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1869,125 +1869,125 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1997,29 +1997,29 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2029,29 +2029,29 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2061,29 +2061,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2093,61 +2093,61 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2157,29 +2157,29 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2189,29 +2189,29 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2221,61 +2221,61 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2285,51 +2285,51 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2339,39 +2339,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2381,61 +2381,61 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2445,93 +2445,93 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2541,29 +2541,29 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2573,19 +2573,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2605,29 +2605,29 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2637,29 +2637,29 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2669,61 +2669,61 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2733,61 +2733,61 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2797,157 +2797,157 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2957,61 +2957,61 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3021,29 +3021,29 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3053,61 +3053,61 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3117,29 +3117,29 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3149,29 +3149,29 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3181,29 +3181,29 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3213,29 +3213,29 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3245,19 +3245,19 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3267,39 +3267,39 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3309,93 +3309,93 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3405,125 +3405,125 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3533,29 +3533,29 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3565,29 +3565,29 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3597,29 +3597,29 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3629,61 +3629,61 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3693,29 +3693,29 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3725,29 +3725,29 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3757,61 +3757,61 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3821,51 +3821,51 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3875,39 +3875,39 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3917,61 +3917,61 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3981,93 +3981,93 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4077,29 +4077,29 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4109,19 +4109,19 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4141,29 +4141,29 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4173,29 +4173,29 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4205,61 +4205,61 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4269,61 +4269,61 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4333,157 +4333,157 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4493,61 +4493,61 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4557,29 +4557,29 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4589,61 +4589,61 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4653,29 +4653,29 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4685,29 +4685,29 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4717,29 +4717,29 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4749,29 +4749,29 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4781,19 +4781,19 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4803,39 +4803,39 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4845,93 +4845,93 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4941,125 +4941,125 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5069,29 +5069,29 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5101,29 +5101,29 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5133,29 +5133,29 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5165,61 +5165,61 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5229,29 +5229,29 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5261,29 +5261,29 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5293,61 +5293,61 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5357,51 +5357,51 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5411,39 +5411,39 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5453,61 +5453,61 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5517,93 +5517,93 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5613,29 +5613,29 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5645,19 +5645,19 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5677,29 +5677,29 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5709,29 +5709,29 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5741,61 +5741,61 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5805,61 +5805,61 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5869,157 +5869,157 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6029,61 +6029,61 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6093,29 +6093,29 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6125,61 +6125,61 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6189,29 +6189,29 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6221,29 +6221,29 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6253,29 +6253,29 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6285,29 +6285,29 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6317,19 +6317,19 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6339,39 +6339,39 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6381,93 +6381,93 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6477,125 +6477,125 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6605,29 +6605,29 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6637,29 +6637,29 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6669,29 +6669,29 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,61 +6701,61 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6765,29 +6765,29 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6797,29 +6797,29 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -6829,61 +6829,61 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6893,51 +6893,51 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6947,39 +6947,39 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -6989,61 +6989,61 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7053,93 +7053,93 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7149,29 +7149,29 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7181,19 +7181,19 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7213,29 +7213,29 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7245,29 +7245,29 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7277,61 +7277,61 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7341,61 +7341,61 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7405,157 +7405,157 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7565,61 +7565,61 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7629,29 +7629,29 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Fourth Signal</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7661,61 +7661,61 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Clofus Innovations</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Maxpillar Education Pvt Ltd</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Trivandrum</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7725,29 +7725,29 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Web designing', 'HR']</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>Automation Anywhere Software Pvt ltd</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>4-9 Yrs</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7757,29 +7757,29 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Addisinfotech</t>
+          <t>Dhruvsoft Services Pvt Ltd</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate should be able to design and create database tables and structures, datab...</t>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Ahmedabad</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7789,29 +7789,29 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>['CSS', 'Web RTC', 'MVC', 'SQL', 'Signal R', 'HTML5', 'jQuery', 'Visual Studio']</t>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Position Responsibilities:Design, development, deployment and support of Enterprise Web...</t>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7821,29 +7821,29 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>['C#', 'Software Development', 'Web Technologies', 'Javascript', 'Asp.Net Core', 'Node.Js', 'SQL Server', 'Sharepoint Framework']</t>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Tech Mahindra</t>
+          <t>Clarion Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft technology development experience in C#, ASP.NET, .NET 5 onwards, Web API, Bo...</t>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>5-8 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Pan India</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -7853,19 +7853,19 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>['.Net', 'Angular', 'SQL', 'Jquery', 'ASP NET', 'Web API', 'Angular 5', 'Troubleshooting']</t>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACHYUTAS SOFT PRIVATE LIMITED </t>
+          <t>Wipro</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in developing enterprise web applicationsKnowledge of design patterns...</t>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7875,39 +7875,39 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Remote</t>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>9,00,000 - 19,00,000 PA.</t>
+          <t>8,00,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'Cloud', 'Javascript', 'Azure', 'ASP.Net', 'Web Api', 'Web Technologies']</t>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>eNFLUENCE IT Services</t>
+          <t>Nice interactive solutions India pvt ltd</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Theoretical or hands-on experience required in Cloud Native technology stack like Azure...</t>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-5 Yrs</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Pune</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,93 +7917,93 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>['IT Skills', '.Net', 'C#', 'Web Api', '.Net Core', 'Xunit', 'ADO.Net', 'HTML']</t>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Required Experience : Salary - No salary bar for deserving one Proven experience as a ....</t>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-6 Yrs</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>['SQL Server', 'troubleshooting', 'Agile methodologies', 'RPC', 'HTML5', 'REST', 'ASP NET framework', 'CSS3']</t>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requirements : - Proven experience in the Asp.NET MVC Requirement Engineering Responsib...</t>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>['Webservices', 'Asp Net', 'SQL Server', 'CSS', 'C# Net', 'GIT', 'HTML', 'XAML']</t>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Beyond Root Technology Services</t>
+          <t>Avantor Performance Materials India Limited</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We can provide remote (full time) work as well In this role, you should be able to writ...</t>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1-6 Yrs</t>
+          <t>3-7 Yrs</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Mohali</t>
+          <t>Pune, Coimbatore</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8013,125 +8013,125 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>['C#', 'AngularJS', 'WebAPI', '.Net', 'Full Stack', 'MVC', 'ASP']</t>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Snaphunt</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-5 Yrs</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,00,000 - 2,00,000 PA.</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'AWS', 'Entity framework', 'Web API', 'MS SQL server', 'WCF', 'ASP Net MVC']</t>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Steria India Ltd</t>
+          <t>Rabbit Digital Branding Solutions</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Candidate should approxExperience with user interface design Experience with browser-ba...</t>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-6 Yrs</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Noida</t>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>4,75,000 - 9,50,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>['API', 'React js', 'SQL server', 'troubleshooting', 'IT Skills', 'React.js', '.Net', 'Troubleshooting Skills']</t>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SPI technologies india private limited</t>
+          <t>Asia Pacific Institute of Management</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strong experience in these frameworks - .NET core, Web API, Entity framework, Entity fr...</t>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Delhi / NCR, Jasola</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>['.Net Core', 'Microservices', 'REST API', 'ASP Net', 'IIS', 'Entity framework core', 'Entity framework', 'Web API']</t>
+          <t>['Web Technologies', 'Web Development']</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Lexicon Infotech Limited</t>
+          <t>TechNerds Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a .Net Developer (UI/ Full Stack Developer) with passion for buildin...</t>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>6-10 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Chennai</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8141,7 +8141,519 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Software Development', 'MS SQL', 'Javascript', 'AWS', '.Net', 'ASP.Net', 'C#']</t>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Fourth Signal</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2-5 Yrs</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Clofus Innovations</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Maxpillar Education Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1-4 Yrs</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Trivandrum</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>['Web designing', 'HR']</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Automation Anywhere Software Pvt ltd</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>4-9 Yrs</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Dhruvsoft Services Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>3-5 Yrs</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Clarion Technologies Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>3-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Clarion Technologies Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>8,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Nice interactive solutions India pvt ltd</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2-5 Yrs</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Coimbatore</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>4,00,000 - 7,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EDUFIED LABS LLP </t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad(Madhapur)</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>3,00,000 - 6,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Avantor Performance Materials India Limited</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>3-7 Yrs</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Pune, Coimbatore</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>1-5 Yrs</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>1,00,000 - 2,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Rabbit Digital Branding Solutions</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>3-6 Yrs</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Asia Pacific Institute of Management</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>3-8 Yrs</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Delhi / NCR, Jasola</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>2,50,000 - 6,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>['Web Technologies', 'Web Development']</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>TechNerds Solutions Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>5-10 Yrs</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
         </is>
       </c>
     </row>

--- a/Web Scrapper/Excel Files/data.xlsx
+++ b/Web Scrapper/Excel Files/data.xlsx
@@ -468,118 +468,118 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,29 +589,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,61 +621,61 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,157 +685,157 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,61 +845,61 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -909,61 +909,61 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -973,29 +973,29 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1005,29 +1005,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,29 +1037,29 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,125 +1069,125 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1197,221 +1197,221 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1421,61 +1421,61 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1485,29 +1485,29 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1517,19 +1517,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1549,29 +1549,29 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1581,29 +1581,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1613,29 +1613,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1645,29 +1645,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1677,317 +1677,317 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1997,29 +1997,29 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2029,29 +2029,29 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2061,29 +2061,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2093,29 +2093,29 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2125,29 +2125,29 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2157,29 +2157,29 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2189,29 +2189,29 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2221,19 +2221,19 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2243,39 +2243,39 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2285,157 +2285,157 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2445,61 +2445,61 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2509,93 +2509,93 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2605,29 +2605,29 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2637,29 +2637,29 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2669,29 +2669,29 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2701,29 +2701,29 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2733,61 +2733,61 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2797,93 +2797,93 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2893,125 +2893,125 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3021,29 +3021,29 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3053,61 +3053,61 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3117,56 +3117,56 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3176,34 +3176,34 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3213,29 +3213,29 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3245,61 +3245,61 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3309,51 +3309,51 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3363,39 +3363,39 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3405,61 +3405,61 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3469,157 +3469,157 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3629,29 +3629,29 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3661,61 +3661,61 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3725,93 +3725,93 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3821,93 +3821,93 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3917,61 +3917,61 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3981,61 +3981,61 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4045,29 +4045,29 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4077,19 +4077,19 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4109,125 +4109,125 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4237,29 +4237,29 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4269,61 +4269,61 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4333,93 +4333,93 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4429,61 +4429,61 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4493,19 +4493,19 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4515,39 +4515,39 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4557,29 +4557,29 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4589,19 +4589,19 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4621,29 +4621,29 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4653,29 +4653,29 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4685,29 +4685,29 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4717,125 +4717,125 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4845,93 +4845,93 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4941,125 +4941,125 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5069,29 +5069,29 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5101,29 +5101,29 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5133,29 +5133,29 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5165,29 +5165,29 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5197,29 +5197,29 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5229,29 +5229,29 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5261,29 +5261,29 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5293,157 +5293,157 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5453,189 +5453,189 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5645,29 +5645,29 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5677,29 +5677,29 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5709,29 +5709,29 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5741,29 +5741,29 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5773,29 +5773,29 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5805,61 +5805,61 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5869,51 +5869,51 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5923,167 +5923,167 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6093,61 +6093,61 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6157,83 +6157,83 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6253,29 +6253,29 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6285,29 +6285,29 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6317,19 +6317,19 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6339,39 +6339,39 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6381,51 +6381,51 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6435,39 +6435,39 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6477,61 +6477,61 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -6541,125 +6541,125 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6669,29 +6669,29 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,61 +6701,61 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6765,125 +6765,125 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6893,93 +6893,93 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -6989,61 +6989,61 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7053,61 +7053,61 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7117,29 +7117,29 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7149,125 +7149,125 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7277,29 +7277,29 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7309,189 +7309,189 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7501,61 +7501,61 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7565,61 +7565,61 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7629,29 +7629,29 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7661,19 +7661,19 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7693,29 +7693,29 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7725,29 +7725,29 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7757,157 +7757,157 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,120 +7917,120 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>5-10 Yrs</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8040,34 +8040,34 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>SSVL Technologies</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> Game Development (cocos2D-x)(Unity) Developers such as SSVL Technologies may be able to...</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>3-5 Yrs</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8077,61 +8077,61 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['Graphics', 'C', 'Coding', 'Opengl', 'cocos2d', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>ExecBoardinAsia</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> Understanding the pulse of the kids to define the best game experience for the respecti...</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>11-15 Yrs</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>2,50,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['Product quality', '3D', 'Head Business Development', 'Quality testing', 'Debugging', 'game development']</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>ModSquad</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Work from home Willingness to install MSQ security software and 2FA app on phone Modera...</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>5-10 Yrs</t>
+          <t>1-4 Yrs</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8141,29 +8141,29 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['Customer Support', 'Work From Home', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Fourth Signal</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technical Consultants - Java Web Developement</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8173,19 +8173,19 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>['Developement', 'Java', 'IT Skills', 'Web development']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'android', 'testing', 'work under pressure']</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Clofus Innovations</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We provide design development services for any company or early- stage entrepreneurs to...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Kolkata, Allahabad/Prayagraj, Ahmedabad</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -8205,29 +8205,29 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>['Technical product configuration', 'c++', 'development', 'C', 'design', 'MySQL', 'JavaScript', 'integration PHP']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Maxpillar Education Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You must also possess a strong knowledge of web application development using PHP progr...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>1-4 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Trivandrum</t>
+          <t>Kolkata, Allahabad/Prayagraj, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -8237,29 +8237,29 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>['Web designing', 'HR']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'object c', 'android']</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Automation Anywhere Software Pvt ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional experience with Word Press, WooCommerce, PHP, and MySQL is nice to have Mi...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>4-9 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Bangalore/Bengaluru</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -8269,29 +8269,29 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>['communication', 'Git', 'web development', 'Word Press', 'development', 'SaaS', 'HTML5', 'CSS']</t>
+          <t>['com', 'c#', 'development', 'c', 'maths', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Dhruvsoft Services Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Roles and Responsibilities Should have experience in PHP, HTML, CSSGood experience in J...</t>
+          <t xml:space="preserve"> Inclination towards making a career in the field of IT. Thorough subject knowledge on C...</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>3-5 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Allahabad/Prayagraj, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8301,29 +8301,29 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>['PHP', 'Javascript', 'CSS', 'Wordpress', 'Bootstrap', 'communication', 'HTML', 'IT Skills']</t>
+          <t>['com', 'c#', 'development', 'game', 'c', 'object c', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good to have experience with REST API developmentQualification: BE / BTech/ME / M.tech/...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>3-8 Yrs</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Allahabad, Kolkata, Pune, Jaipur</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8333,29 +8333,29 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>['REST API', 'NoSQL', 'Typescript', 'Continuous Integration', 'ContextAPI', 'Unit test development', 'Vuejs', 'Hooks']</t>
+          <t>['com', 'c#', 'development', 'C', 'testing', 'Programming', 'it', 'Game testing']</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Clarion Technologies Pvt Ltd</t>
+          <t>Virtualinfocom</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Should have experience of Angular 8 Should have good experience on Nodejs and RESTFUL A...</t>
+          <t xml:space="preserve"> Strong knowledge in maths or physics A serious gamer Passion for learning new technolog...</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-7 Yrs</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Allahabad/Prayagraj, Kolkata, Ahmedabad</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -8365,157 +8365,157 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>['continuous integration', 'Front end', 'GIT', 'NoSQL', 'RDBMS', 'TDD', 'Web development', 'Javascript']</t>
+          <t>['com', 'c#', 'game testing', 'development', 'c', 'maths', 'android', 'testing']</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Wipro</t>
+          <t xml:space="preserve">WITZEAL TECHNOLOGIES PRIVATE LIMITED </t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiring for Webmethods Developer - Bangalore / Hyderabad Experience - 3.5 to 8 yrsLocati...</t>
+          <t xml:space="preserve"> Good understanding of code versioning tools, such as Git 2+ years of experience develop...</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad, Bangalore/Bengaluru</t>
+          <t>Gurgaon/Gurugram</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>8,00,000 - 16,00,000 PA.</t>
+          <t>10,00,000 - 15,00,000 PA.</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>['APIs', 'web services', 'communication', 'CVS', 'EDI', 'BPM', 'SOA', 'SDLC']</t>
+          <t>['Libgdx', 'Core Java', 'Unity', 'Android Framework', 'Android Development', 'Android SDK', 'Android Studio']</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Nice interactive solutions India pvt ltd</t>
+          <t>We Bros Media</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2-4 years of software development experience2+ years of server side development in Java...</t>
+          <t xml:space="preserve"> Experience in optimizing memory usage without touching the throughput delivered by the ...</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2-5 Yrs</t>
+          <t>0-5 Yrs</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Pune</t>
+          <t>Kochi/Cochin</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>1,50,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>['Java', 'Web Technologies', 'IT Skills', 'Software Development', 'Javascript', 'Jenkins', 'Action Script', 'Html5']</t>
+          <t>['C#', 'Unity3D', 'Unity', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>STALWART PEOPLE SERVICES INDIA LIMITED</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are looking for a Senior Software Engineer for developing our web based ERP solution...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2-6 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>4,00,000 - 7,00,000 PA.</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>['Node.Js', 'React.Js', 'Web Development', 'Node js', 'SQL', 'GIT', 'React js', 'verbal communication']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">EDUFIED LABS LLP </t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proficient understanding of code versioning tools, such as Gitlab The ideal candidate s...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required Experience with memory and space optimization Good com...</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2-7 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Madhapur)</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>['Database Administration', 'MySQL', 'Javascript', 'PHP', 'Restful Webservices', 'Web Development', 'Core PHP']</t>
+          <t>['C#', 'Unity3D', 'C++', 'C', 'Unity', 'Game Development', 'Session Management', 'Computer Engineering']</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Avantor Performance Materials India Limited</t>
+          <t>Vasundhara Infotech</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The following is a summary of the essential functions for this job. Other Duties may be...</t>
+          <t xml:space="preserve"> Fresher can applySkills Required : - BS / MS degree in Computer Science, Computer Engin...</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>3-7 Yrs</t>
+          <t>0-1 Yrs</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Pune, Coimbatore</t>
+          <t>Surat</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8525,61 +8525,61 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>['JQuery', 'Angular', 'Javascript Frameworks', 'MySQL', 'Web Application Development']</t>
+          <t>['Unity3D', 'C++', 'C', 'Animation', 'Game Design', 'Scripting']</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Snaphunt</t>
+          <t>IDZ Digital Private Limited</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a creative marketing professional, preferably with a strong content creation an...</t>
+          <t xml:space="preserve"> Work From Home Should have excellent IT and programming skills Should have a logical ap...</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>1-5 Yrs</t>
+          <t>0-2 Yrs</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad</t>
+          <t>Mumbai, Mumbai Suburban</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>1,00,000 - 2,00,000 PA.</t>
+          <t>1,50,000 - 3,50,000 PA.</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>['IT Skills', 'Testing', 'Digital Marketing', 'Marketing Strategy', 'Sales', 'Content Marketing', 'Social Media', 'Viral Marketing']</t>
+          <t>['java', 'coding', 'c#', 'game developer', 'gaming', 'c', 'mechanical engineering', 'android']</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Rabbit Digital Branding Solutions</t>
+          <t>Spheres</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This would be Work from Office &amp; Not Work from Home JobOptimize application for maximum...</t>
+          <t xml:space="preserve"> You will be required to recruit and build team to design a full fledge Game under a sti...</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>3-6 Yrs</t>
+          <t>2-4 Yrs</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Hyderabad/Secunderabad(Jubilee Hills)</t>
+          <t>Pune, Bangalore/Bengaluru, Mumbai (All Areas)</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8589,29 +8589,29 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>['CSS', 'User Interface Developement', 'SASS', 'Front End Web Developer', 'JQuery', 'Typescript', 'UI Development', 'HTML5']</t>
+          <t>['Game Development', 'Game Design', 'Team Handling', 'Project Management', 'Team Building']</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Asia Pacific Institute of Management</t>
+          <t>Axis Entertainment Limited</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Build Good Quality websites and Web Applications from ScratchMinimum 3 years Experience</t>
+          <t xml:space="preserve"> 4 years of experience in Game developmentExperience with scripting, textures, animation...</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>3-8 Yrs</t>
+          <t>0-4 Yrs</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Delhi / NCR, Jasola</t>
+          <t>Mumbai(Ghansoli +2), Navi Mumbai</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8621,19 +8621,19 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>['Web Technologies', 'Web Development']</t>
+          <t>['Unity3D', 'Multiplayer Games', 'Socket Io', 'Augmented Reality', 'C# programming', 'Hyper casual Games', 'Vr', 'Game Development']</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>TechNerds Solutions Pvt Ltd</t>
+          <t>Butterfly Edufields Pvt Ltd</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Qualifications &amp; Required Skills:4+ years professional experience building responsive, ...</t>
+          <t xml:space="preserve"> Experience: 0-4 Years Experience: 5 - 10 Years</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -8643,17 +8643,17 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Hyderabad/Secunderabad</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>['Vue.Js', 'Algorithms', 'Symphony', 'Web Technologies', 'Php Frameworks', 'SQL Queries', 'Laravel', 'Web Development']</t>
+          <t>['Unity3D', 'Unreal Engine', 'Augmented Reality', 'Game Development', 'Virtual Reality']</t>
         </is>
       </c>
     </row>
